--- a/SQL/Data.xlsx
+++ b/SQL/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="577" firstSheet="21" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="577" firstSheet="29" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="yelp_business" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,19 @@
     <sheet name="worker" sheetId="26" r:id="rId25"/>
     <sheet name="title" sheetId="27" r:id="rId26"/>
     <sheet name="salesforce_employees" sheetId="28" r:id="rId27"/>
+    <sheet name="member_count" sheetId="31" r:id="rId28"/>
+    <sheet name="member_joined" sheetId="30" r:id="rId29"/>
+    <sheet name="cb_salary" sheetId="32" r:id="rId30"/>
+    <sheet name="cb_companydivisions" sheetId="33" r:id="rId31"/>
+    <sheet name="cb_vendor" sheetId="29" r:id="rId32"/>
+    <sheet name="cb_vendorinformation" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6402" uniqueCount="2975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6634" uniqueCount="3063">
   <si>
     <t>business_id</t>
   </si>
@@ -8965,12 +8971,279 @@
   </si>
   <si>
     <t>david@company.com</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>VendorID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>ExternalID</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Knolle</t>
+  </si>
+  <si>
+    <t>39765</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Sully</t>
+  </si>
+  <si>
+    <t>48507</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>8219</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>5397</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Dial</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>24122</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10272</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ReportsTo</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Bob Boss</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Daniel Smith</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Jenny Richards</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>David S</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>DateJoined</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>ManagerID</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Arnold Sully</t>
+  </si>
+  <si>
+    <t>Lisa Roberts</t>
+  </si>
+  <si>
+    <t>Mary Dial</t>
+  </si>
+  <si>
+    <t>Dennis Front</t>
+  </si>
+  <si>
+    <t>Larry Weis</t>
+  </si>
+  <si>
+    <t>Mark Red</t>
+  </si>
+  <si>
+    <t>Robert Night</t>
+  </si>
+  <si>
+    <t>Susan Wall</t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Co.</t>
+  </si>
+  <si>
+    <t>Johnson and Sons</t>
+  </si>
+  <si>
+    <t>News Corp.</t>
+  </si>
+  <si>
+    <t>FireConsulting</t>
+  </si>
+  <si>
+    <t>WaterBus Enterprise</t>
+  </si>
+  <si>
+    <t>Alloy LLC</t>
+  </si>
+  <si>
+    <t>Machinx</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Weis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9049,7 +9322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9066,6 +9339,7 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21780,7 +22054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>7196412</v>
       </c>
@@ -21842,7 +22116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>16333776</v>
       </c>
@@ -21904,7 +22178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1786412</v>
       </c>
@@ -21966,7 +22240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>14575777</v>
       </c>
@@ -22026,7 +22300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>20515889</v>
       </c>
@@ -22086,7 +22360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13783491</v>
       </c>
@@ -22148,7 +22422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6591755</v>
       </c>
@@ -22210,7 +22484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5203241</v>
       </c>
@@ -22272,7 +22546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11508891</v>
       </c>
@@ -22334,7 +22608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>18823930</v>
       </c>
@@ -22396,7 +22670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>15523281</v>
       </c>
@@ -22456,7 +22730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>19698509</v>
       </c>
@@ -22514,7 +22788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12497464</v>
       </c>
@@ -22574,7 +22848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>17764793</v>
       </c>
@@ -22636,7 +22910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>11136854</v>
       </c>
@@ -22698,7 +22972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15754561</v>
       </c>
@@ -22816,7 +23090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>13207484</v>
       </c>
@@ -22876,7 +23150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>7837072</v>
       </c>
@@ -22934,7 +23208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>7823396</v>
       </c>
@@ -22996,7 +23270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>7966742</v>
       </c>
@@ -23058,7 +23332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>257568</v>
       </c>
@@ -23120,7 +23394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>18073864</v>
       </c>
@@ -23180,7 +23454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>13667633</v>
       </c>
@@ -23242,7 +23516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>590903</v>
       </c>
@@ -23304,7 +23578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>19161964</v>
       </c>
@@ -23360,7 +23634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>19475815</v>
       </c>
@@ -23422,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1407841</v>
       </c>
@@ -23484,7 +23758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1535628</v>
       </c>
@@ -23546,7 +23820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>6888244</v>
       </c>
@@ -23608,7 +23882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>8889145</v>
       </c>
@@ -23666,7 +23940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>15073872</v>
       </c>
@@ -23728,7 +24002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10174146</v>
       </c>
@@ -23788,7 +24062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>12600300</v>
       </c>
@@ -23850,7 +24124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>62427</v>
       </c>
@@ -23912,7 +24186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>5447656</v>
       </c>
@@ -23974,7 +24248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2974433</v>
       </c>
@@ -24036,7 +24310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>17010314</v>
       </c>
@@ -24096,7 +24370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>20167264</v>
       </c>
@@ -24158,7 +24432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4156913</v>
       </c>
@@ -24220,7 +24494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>11993790</v>
       </c>
@@ -24280,7 +24554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>10989476</v>
       </c>
@@ -24342,7 +24616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>7939396</v>
       </c>
@@ -24404,7 +24678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>17840858</v>
       </c>
@@ -24462,7 +24736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2444713</v>
       </c>
@@ -24524,7 +24798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>13276443</v>
       </c>
@@ -24584,7 +24858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>19947454</v>
       </c>
@@ -24646,7 +24920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>13653016</v>
       </c>
@@ -24706,7 +24980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>20942873</v>
       </c>
@@ -24768,7 +25042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>19583726</v>
       </c>
@@ -24828,7 +25102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>17196103</v>
       </c>
@@ -24890,7 +25164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>9318115</v>
       </c>
@@ -24950,7 +25224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>9937434</v>
       </c>
@@ -25012,7 +25286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>4454031</v>
       </c>
@@ -25072,7 +25346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>16259866</v>
       </c>
@@ -25134,7 +25408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>20282225</v>
       </c>
@@ -25196,7 +25470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>23269</v>
       </c>
@@ -25256,7 +25530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>7637363</v>
       </c>
@@ -25318,7 +25592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>6391342</v>
       </c>
@@ -25380,7 +25654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>11606802</v>
       </c>
@@ -25442,7 +25716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>12289125</v>
       </c>
@@ -25504,7 +25778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>19875244</v>
       </c>
@@ -25564,7 +25838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>392794</v>
       </c>
@@ -25626,7 +25900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>992786</v>
       </c>
@@ -25688,7 +25962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>13650177</v>
       </c>
@@ -25750,7 +26024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>5792141</v>
       </c>
@@ -25812,7 +26086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="390.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>6390069</v>
       </c>
@@ -25870,7 +26144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>8579757</v>
       </c>
@@ -25932,7 +26206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>14115855</v>
       </c>
@@ -25994,7 +26268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>685364</v>
       </c>
@@ -26056,7 +26330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>20031027</v>
       </c>
@@ -26118,7 +26392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2399406</v>
       </c>
@@ -26180,7 +26454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>15991936</v>
       </c>
@@ -26242,7 +26516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>17497415</v>
       </c>
@@ -26304,7 +26578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>5321538</v>
       </c>
@@ -26364,7 +26638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>6228461</v>
       </c>
@@ -26426,7 +26700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>12954602</v>
       </c>
@@ -26488,7 +26762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>15409556</v>
       </c>
@@ -26550,7 +26824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>14057888</v>
       </c>
@@ -26612,7 +26886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>21005590</v>
       </c>
@@ -26670,7 +26944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>4698479</v>
       </c>
@@ -26730,7 +27004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>6661783</v>
       </c>
@@ -26792,7 +27066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2243670</v>
       </c>
@@ -26854,7 +27128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>5059214</v>
       </c>
@@ -26912,7 +27186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>16354537</v>
       </c>
@@ -26974,7 +27248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>20556938</v>
       </c>
@@ -27036,7 +27310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>10165064</v>
       </c>
@@ -27096,7 +27370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>7359527</v>
       </c>
@@ -27156,7 +27430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>4902799</v>
       </c>
@@ -27214,7 +27488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>20976767</v>
       </c>
@@ -27276,7 +27550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>10869168</v>
       </c>
@@ -27338,7 +27612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>7591555</v>
       </c>
@@ -27400,7 +27674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>15454112</v>
       </c>
@@ -27462,7 +27736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>16662334</v>
       </c>
@@ -27524,7 +27798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>19118005</v>
       </c>
@@ -27586,7 +27860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>11972209</v>
       </c>
@@ -27648,7 +27922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>8284881</v>
       </c>
@@ -27708,7 +27982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>14276565</v>
       </c>
@@ -27768,7 +28042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>10923708</v>
       </c>
@@ -27830,7 +28104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1998513</v>
       </c>
@@ -27892,7 +28166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>18211034</v>
       </c>
@@ -27950,7 +28224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>13041230</v>
       </c>
@@ -28010,7 +28284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>8256789</v>
       </c>
@@ -28070,7 +28344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>7347593</v>
       </c>
@@ -28132,7 +28406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>17009057</v>
       </c>
@@ -28194,7 +28468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>18333003</v>
       </c>
@@ -28254,7 +28528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>16274069</v>
       </c>
@@ -28316,7 +28590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>20049857</v>
       </c>
@@ -28374,7 +28648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>18157879</v>
       </c>
@@ -28434,7 +28708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>17666136</v>
       </c>
@@ -28494,7 +28768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2135314</v>
       </c>
@@ -28554,7 +28828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>5321584</v>
       </c>
@@ -28614,7 +28888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>13121821</v>
       </c>
@@ -28672,7 +28946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>12282255</v>
       </c>
@@ -28734,7 +29008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>6630775</v>
       </c>
@@ -28796,7 +29070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>9479348</v>
       </c>
@@ -28858,7 +29132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>3710477</v>
       </c>
@@ -28918,7 +29192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>13978228</v>
       </c>
@@ -28978,7 +29252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>16028615</v>
       </c>
@@ -29040,7 +29314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>15027031</v>
       </c>
@@ -29102,7 +29376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>19245819</v>
       </c>
@@ -29162,7 +29436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>10770929</v>
       </c>
@@ -29224,7 +29498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>12592005</v>
       </c>
@@ -29286,7 +29560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>1174876</v>
       </c>
@@ -29348,7 +29622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>20888646</v>
       </c>
@@ -29410,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>7834158</v>
       </c>
@@ -29472,7 +29746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>6692191</v>
       </c>
@@ -29534,7 +29808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>8084290</v>
       </c>
@@ -29596,7 +29870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>6689195</v>
       </c>
@@ -29654,7 +29928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>11157369</v>
       </c>
@@ -29712,7 +29986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>15705947</v>
       </c>
@@ -29774,7 +30048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>11456592</v>
       </c>
@@ -29834,7 +30108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>1077375</v>
       </c>
@@ -29894,7 +30168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>17681277</v>
       </c>
@@ -29954,7 +30228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>10842610</v>
       </c>
@@ -30016,7 +30290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>8881130</v>
       </c>
@@ -30078,7 +30352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>14236545</v>
       </c>
@@ -30140,7 +30414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>14219018</v>
       </c>
@@ -30202,7 +30476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>8596057</v>
       </c>
@@ -30260,7 +30534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>11525500</v>
       </c>
@@ -30322,7 +30596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>533884</v>
       </c>
@@ -30380,7 +30654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>3585452</v>
       </c>
@@ -30440,7 +30714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>14320263</v>
       </c>
@@ -30500,7 +30774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>11399852</v>
       </c>
@@ -30562,7 +30836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>12386097</v>
       </c>
@@ -30624,7 +30898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>1404510</v>
       </c>
@@ -30686,7 +30960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>4691130</v>
       </c>
@@ -30744,7 +31018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>16449480</v>
       </c>
@@ -30806,7 +31080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>15149374</v>
       </c>
@@ -30868,7 +31142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>10089727</v>
       </c>
@@ -30928,7 +31202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>3323232</v>
       </c>
@@ -30988,7 +31262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>20899396</v>
       </c>
@@ -31050,7 +31324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>3380585</v>
       </c>
@@ -31110,7 +31384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>16073836</v>
       </c>
@@ -31168,7 +31442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>20257960</v>
       </c>
@@ -31226,7 +31500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>4559312</v>
       </c>
@@ -31286,7 +31560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>2165604</v>
       </c>
@@ -31348,7 +31622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>18385413</v>
       </c>
@@ -31408,7 +31682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>9470528</v>
       </c>
@@ -52676,7 +52950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -54129,6 +54403,440 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2343434</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6343544</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>355445</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2322324</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>122323</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>454343</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2342342</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1322323</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5341124</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13663442</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26323242</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12263545</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23423423</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34452352</v>
+      </c>
+      <c r="B15" s="6">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>235534534</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22224233</v>
+      </c>
+      <c r="B17" s="6">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3353235</v>
+      </c>
+      <c r="B18" s="6">
+        <v>42830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>56243434</v>
+      </c>
+      <c r="B19" s="6">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>33463266</v>
+      </c>
+      <c r="B20" s="6">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6634653</v>
+      </c>
+      <c r="B21" s="6">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2342324</v>
+      </c>
+      <c r="B22" s="6">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2366436</v>
+      </c>
+      <c r="B23" s="6">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1123124</v>
+      </c>
+      <c r="B24" s="6">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3534534</v>
+      </c>
+      <c r="B25" s="6">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>46763543</v>
+      </c>
+      <c r="B26" s="6">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33463255</v>
+      </c>
+      <c r="B27" s="6">
+        <v>42880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
@@ -54197,6 +54905,904 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>133</v>
+      </c>
+      <c r="E2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>467</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C5">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>467</v>
+      </c>
+      <c r="E5">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>35534</v>
+      </c>
+      <c r="E7">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>133</v>
+      </c>
+      <c r="E8">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>12353</v>
+      </c>
+      <c r="E9">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>577</v>
+      </c>
+      <c r="E10">
+        <v>110000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D13" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3012</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3015</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G20">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
